--- a/dengue data converted /2007_dengue_extracted.xlsx
+++ b/dengue data converted /2007_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\4. FS\Data analysis\Extracted Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemitigrato/Desktop/topic04_team01/dengue data converted /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78269BEB-1C6C-4B6F-9DCE-F6824A5D7CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE651981-2F08-D048-AF43-6A41EDD0EA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2547D021-962D-4699-993E-E32110AB07A5}"/>
+    <workbookView xWindow="-27320" yWindow="-2080" windowWidth="27320" windowHeight="18920" xr2:uid="{2547D021-962D-4699-993E-E32110AB07A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
   <si>
     <t>Reporting areas</t>
   </si>
@@ -245,12 +245,6 @@
     <t>Trat</t>
   </si>
   <si>
-    <t>North-Eastern</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Zone:10</t>
   </si>
   <si>
@@ -381,6 +375,9 @@
   </si>
   <si>
     <t>Songkhla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North-Eastern Region </t>
   </si>
 </sst>
 </file>
@@ -442,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -478,35 +475,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -532,19 +505,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,15 +822,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF8CE4F-90A3-4F97-8123-377406E96ADB}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,7 +874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -957,7 +918,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +962,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1045,7 +1006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1133,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1221,7 +1182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1265,7 +1226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1309,7 +1270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1353,7 +1314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +1358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1441,7 +1402,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1485,7 +1446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1529,7 +1490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -1573,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -1617,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -1661,7 +1622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -1705,7 +1666,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1749,7 +1710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1793,7 +1754,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -1837,7 +1798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1881,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -1925,7 +1886,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -1969,7 +1930,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
@@ -2013,7 +1974,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -2057,7 +2018,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -2101,7 +2062,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -2145,7 +2106,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -2189,7 +2150,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
@@ -2233,7 +2194,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
@@ -2277,7 +2238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -2321,7 +2282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -2365,7 +2326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
@@ -2409,7 +2370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
@@ -2453,7 +2414,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
@@ -2497,7 +2458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>50</v>
       </c>
@@ -2541,7 +2502,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>51</v>
       </c>
@@ -2585,7 +2546,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>52</v>
       </c>
@@ -2629,7 +2590,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>53</v>
       </c>
@@ -2673,7 +2634,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>54</v>
       </c>
@@ -2717,7 +2678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>55</v>
       </c>
@@ -2761,7 +2722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>56</v>
       </c>
@@ -2805,7 +2766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>57</v>
       </c>
@@ -2849,7 +2810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -2893,7 +2854,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>59</v>
       </c>
@@ -2937,7 +2898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>60</v>
       </c>
@@ -2981,7 +2942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>61</v>
       </c>
@@ -3025,7 +2986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>62</v>
       </c>
@@ -3069,7 +3030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
@@ -3113,7 +3074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>64</v>
       </c>
@@ -3157,7 +3118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>65</v>
       </c>
@@ -3201,7 +3162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>66</v>
       </c>
@@ -3245,7 +3206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>67</v>
       </c>
@@ -3289,7 +3250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>68</v>
       </c>
@@ -3333,2036 +3294,1987 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" s="9">
+        <v>17758</v>
+      </c>
+      <c r="C57" s="9">
+        <v>290</v>
+      </c>
+      <c r="D57" s="9">
+        <v>263</v>
+      </c>
+      <c r="E57" s="9">
+        <v>622</v>
+      </c>
+      <c r="F57" s="9">
+        <v>948</v>
+      </c>
+      <c r="G57" s="9">
+        <v>2102</v>
+      </c>
+      <c r="H57" s="9">
+        <v>4160</v>
+      </c>
+      <c r="I57" s="9">
+        <v>3164</v>
+      </c>
+      <c r="J57" s="9">
+        <v>2457</v>
+      </c>
+      <c r="K57" s="9">
+        <v>1978</v>
+      </c>
+      <c r="L57" s="9">
+        <v>1001</v>
+      </c>
+      <c r="M57" s="9">
+        <v>490</v>
+      </c>
+      <c r="N57" s="9">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="11">
-        <v>17758</v>
-      </c>
-      <c r="C57" s="11">
-        <v>290</v>
-      </c>
-      <c r="D57" s="11">
-        <v>263</v>
-      </c>
-      <c r="E57" s="11">
-        <v>622</v>
-      </c>
-      <c r="F57" s="11">
-        <v>948</v>
-      </c>
-      <c r="G57" s="11">
-        <v>2102</v>
-      </c>
-      <c r="H57" s="11">
-        <v>4160</v>
-      </c>
-      <c r="I57" s="11">
-        <v>3164</v>
-      </c>
-      <c r="J57" s="11">
-        <v>2457</v>
-      </c>
-      <c r="K57" s="11">
-        <v>1978</v>
-      </c>
-      <c r="L57" s="11">
-        <v>1001</v>
-      </c>
-      <c r="M57" s="11">
-        <v>490</v>
-      </c>
-      <c r="N57" s="11">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+      <c r="B58" s="3">
+        <v>1492</v>
+      </c>
+      <c r="C58" s="3">
+        <v>31</v>
+      </c>
+      <c r="D58" s="3">
+        <v>12</v>
+      </c>
+      <c r="E58" s="3">
+        <v>28</v>
+      </c>
+      <c r="F58" s="3">
+        <v>32</v>
+      </c>
+      <c r="G58" s="3">
+        <v>181</v>
+      </c>
+      <c r="H58" s="3">
+        <v>364</v>
+      </c>
+      <c r="I58" s="3">
+        <v>335</v>
+      </c>
+      <c r="J58" s="3">
+        <v>221</v>
+      </c>
+      <c r="K58" s="3">
+        <v>148</v>
+      </c>
+      <c r="L58" s="3">
+        <v>86</v>
+      </c>
+      <c r="M58" s="3">
+        <v>35</v>
+      </c>
+      <c r="N58" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="B59" s="6">
+        <v>293</v>
+      </c>
+      <c r="C59" s="6">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="6">
+        <v>3</v>
+      </c>
+      <c r="F59" s="6">
+        <v>6</v>
+      </c>
+      <c r="G59" s="6">
+        <v>50</v>
+      </c>
+      <c r="H59" s="6">
+        <v>100</v>
+      </c>
+      <c r="I59" s="6">
+        <v>62</v>
+      </c>
+      <c r="J59" s="6">
+        <v>30</v>
+      </c>
+      <c r="K59" s="6">
+        <v>14</v>
+      </c>
+      <c r="L59" s="6">
+        <v>11</v>
+      </c>
+      <c r="M59" s="6">
+        <v>3</v>
+      </c>
+      <c r="N59" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="3">
-        <v>1492</v>
-      </c>
-      <c r="C60" s="3">
-        <v>31</v>
-      </c>
-      <c r="D60" s="3">
-        <v>12</v>
-      </c>
-      <c r="E60" s="3">
-        <v>28</v>
-      </c>
-      <c r="F60" s="3">
-        <v>32</v>
-      </c>
-      <c r="G60" s="3">
-        <v>181</v>
-      </c>
-      <c r="H60" s="3">
-        <v>364</v>
-      </c>
-      <c r="I60" s="3">
-        <v>335</v>
-      </c>
-      <c r="J60" s="3">
-        <v>221</v>
-      </c>
-      <c r="K60" s="3">
-        <v>148</v>
-      </c>
-      <c r="L60" s="3">
-        <v>86</v>
-      </c>
-      <c r="M60" s="3">
-        <v>35</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="B60" s="6">
+        <v>111</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="6">
+        <v>6</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="6">
+        <v>11</v>
+      </c>
+      <c r="H60" s="6">
+        <v>21</v>
+      </c>
+      <c r="I60" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J60" s="6">
+        <v>24</v>
+      </c>
+      <c r="K60" s="6">
+        <v>19</v>
+      </c>
+      <c r="L60" s="6">
+        <v>6</v>
+      </c>
+      <c r="M60" s="6">
+        <v>2</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B61" s="6">
-        <v>293</v>
+        <v>453</v>
       </c>
       <c r="C61" s="6">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6">
+        <v>3</v>
+      </c>
+      <c r="E61" s="6">
+        <v>6</v>
+      </c>
+      <c r="F61" s="6">
         <v>8</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="6">
-        <v>3</v>
-      </c>
-      <c r="F61" s="6">
-        <v>6</v>
-      </c>
       <c r="G61" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H61" s="6">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I61" s="6">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="J61" s="6">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K61" s="6">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="L61" s="6">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M61" s="6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N61" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B62" s="6">
-        <v>111</v>
+        <v>635</v>
       </c>
       <c r="C62" s="6">
-        <v>3</v>
-      </c>
-      <c r="D62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="6">
+        <v>9</v>
+      </c>
+      <c r="E62" s="6">
+        <v>13</v>
+      </c>
+      <c r="F62" s="6">
         <v>18</v>
       </c>
-      <c r="E62" s="6">
-        <v>6</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="G62" s="6">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="H62" s="6">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I62" s="6">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="J62" s="6">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="K62" s="6">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="L62" s="6">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M62" s="6">
-        <v>2</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="3">
+        <v>2578</v>
+      </c>
+      <c r="C63" s="3">
+        <v>52</v>
+      </c>
+      <c r="D63" s="3">
+        <v>32</v>
+      </c>
+      <c r="E63" s="3">
+        <v>97</v>
+      </c>
+      <c r="F63" s="3">
+        <v>157</v>
+      </c>
+      <c r="G63" s="3">
+        <v>215</v>
+      </c>
+      <c r="H63" s="3">
         <v>453</v>
       </c>
-      <c r="C63" s="6">
-        <v>7</v>
-      </c>
-      <c r="D63" s="6">
-        <v>3</v>
-      </c>
-      <c r="E63" s="6">
-        <v>6</v>
-      </c>
-      <c r="F63" s="6">
-        <v>8</v>
-      </c>
-      <c r="G63" s="6">
-        <v>49</v>
-      </c>
-      <c r="H63" s="6">
-        <v>120</v>
-      </c>
-      <c r="I63" s="6">
-        <v>115</v>
-      </c>
-      <c r="J63" s="6">
-        <v>55</v>
-      </c>
-      <c r="K63" s="6">
-        <v>33</v>
-      </c>
-      <c r="L63" s="6">
-        <v>31</v>
-      </c>
-      <c r="M63" s="6">
-        <v>17</v>
-      </c>
-      <c r="N63" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I63" s="3">
+        <v>511</v>
+      </c>
+      <c r="J63" s="3">
+        <v>442</v>
+      </c>
+      <c r="K63" s="3">
+        <v>292</v>
+      </c>
+      <c r="L63" s="3">
+        <v>169</v>
+      </c>
+      <c r="M63" s="3">
+        <v>90</v>
+      </c>
+      <c r="N63" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B64" s="6">
-        <v>635</v>
+        <v>1435</v>
       </c>
       <c r="C64" s="6">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D64" s="6">
+        <v>21</v>
+      </c>
+      <c r="E64" s="6">
+        <v>57</v>
+      </c>
+      <c r="F64" s="6">
+        <v>67</v>
+      </c>
+      <c r="G64" s="6">
+        <v>83</v>
+      </c>
+      <c r="H64" s="6">
+        <v>206</v>
+      </c>
+      <c r="I64" s="6">
+        <v>255</v>
+      </c>
+      <c r="J64" s="6">
+        <v>260</v>
+      </c>
+      <c r="K64" s="6">
+        <v>199</v>
+      </c>
+      <c r="L64" s="6">
+        <v>133</v>
+      </c>
+      <c r="M64" s="6">
+        <v>71</v>
+      </c>
+      <c r="N64" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="6">
+        <v>328</v>
+      </c>
+      <c r="C65" s="6">
+        <v>6</v>
+      </c>
+      <c r="D65" s="6">
+        <v>4</v>
+      </c>
+      <c r="E65" s="6">
         <v>9</v>
       </c>
-      <c r="E64" s="6">
-        <v>13</v>
-      </c>
-      <c r="F64" s="6">
-        <v>18</v>
-      </c>
-      <c r="G64" s="6">
+      <c r="F65" s="6">
+        <v>24</v>
+      </c>
+      <c r="G65" s="6">
+        <v>30</v>
+      </c>
+      <c r="H65" s="6">
+        <v>57</v>
+      </c>
+      <c r="I65" s="6">
         <v>71</v>
       </c>
-      <c r="H64" s="6">
-        <v>123</v>
-      </c>
-      <c r="I64" s="6">
-        <v>139</v>
-      </c>
-      <c r="J64" s="6">
-        <v>112</v>
-      </c>
-      <c r="K64" s="6">
-        <v>82</v>
-      </c>
-      <c r="L64" s="6">
-        <v>38</v>
-      </c>
-      <c r="M64" s="6">
-        <v>13</v>
-      </c>
-      <c r="N64" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="3">
-        <v>2578</v>
-      </c>
-      <c r="C65" s="3">
-        <v>52</v>
-      </c>
-      <c r="D65" s="3">
-        <v>32</v>
-      </c>
-      <c r="E65" s="3">
-        <v>97</v>
-      </c>
-      <c r="F65" s="3">
-        <v>157</v>
-      </c>
-      <c r="G65" s="3">
-        <v>215</v>
-      </c>
-      <c r="H65" s="3">
-        <v>453</v>
-      </c>
-      <c r="I65" s="3">
-        <v>511</v>
-      </c>
-      <c r="J65" s="3">
-        <v>442</v>
-      </c>
-      <c r="K65" s="3">
-        <v>292</v>
-      </c>
-      <c r="L65" s="3">
-        <v>169</v>
-      </c>
-      <c r="M65" s="3">
-        <v>90</v>
-      </c>
-      <c r="N65" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J65" s="6">
+        <v>63</v>
+      </c>
+      <c r="K65" s="6">
+        <v>28</v>
+      </c>
+      <c r="L65" s="6">
+        <v>16</v>
+      </c>
+      <c r="M65" s="6">
+        <v>5</v>
+      </c>
+      <c r="N65" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B66" s="6">
-        <v>1435</v>
+        <v>105</v>
       </c>
       <c r="C66" s="6">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D66" s="6">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E66" s="6">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="F66" s="6">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="G66" s="6">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H66" s="6">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I66" s="6">
-        <v>255</v>
+        <v>3</v>
       </c>
       <c r="J66" s="6">
-        <v>260</v>
+        <v>2</v>
       </c>
       <c r="K66" s="6">
-        <v>199</v>
-      </c>
-      <c r="L66" s="6">
-        <v>133</v>
-      </c>
-      <c r="M66" s="6">
-        <v>71</v>
-      </c>
-      <c r="N66" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B67" s="6">
-        <v>328</v>
+        <v>710</v>
       </c>
       <c r="C67" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E67" s="6">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F67" s="6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G67" s="6">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="H67" s="6">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="I67" s="6">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="J67" s="6">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="K67" s="6">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="L67" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M67" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N67" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="6">
-        <v>105</v>
-      </c>
-      <c r="C68" s="6">
-        <v>1</v>
-      </c>
-      <c r="D68" s="6">
-        <v>2</v>
-      </c>
-      <c r="E68" s="6">
-        <v>5</v>
-      </c>
-      <c r="F68" s="6">
-        <v>35</v>
-      </c>
-      <c r="G68" s="6">
-        <v>36</v>
-      </c>
-      <c r="H68" s="6">
-        <v>20</v>
-      </c>
-      <c r="I68" s="6">
-        <v>3</v>
-      </c>
-      <c r="J68" s="6">
-        <v>2</v>
-      </c>
-      <c r="K68" s="6">
-        <v>1</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="3">
+        <v>3793</v>
+      </c>
+      <c r="C68" s="3">
+        <v>55</v>
+      </c>
+      <c r="D68" s="3">
+        <v>56</v>
+      </c>
+      <c r="E68" s="3">
+        <v>156</v>
+      </c>
+      <c r="F68" s="3">
+        <v>184</v>
+      </c>
+      <c r="G68" s="3">
+        <v>480</v>
+      </c>
+      <c r="H68" s="3">
+        <v>762</v>
+      </c>
+      <c r="I68" s="3">
+        <v>632</v>
+      </c>
+      <c r="J68" s="3">
+        <v>584</v>
+      </c>
+      <c r="K68" s="3">
+        <v>507</v>
+      </c>
+      <c r="L68" s="3">
+        <v>214</v>
+      </c>
+      <c r="M68" s="3">
+        <v>114</v>
+      </c>
+      <c r="N68" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B69" s="6">
-        <v>710</v>
+        <v>983</v>
       </c>
       <c r="C69" s="6">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D69" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E69" s="6">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F69" s="6">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G69" s="6">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="H69" s="6">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="I69" s="6">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="J69" s="6">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="K69" s="6">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="L69" s="6">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M69" s="6">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N69" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="3">
-        <v>3793</v>
-      </c>
-      <c r="C70" s="3">
-        <v>55</v>
-      </c>
-      <c r="D70" s="3">
-        <v>56</v>
-      </c>
-      <c r="E70" s="3">
-        <v>156</v>
-      </c>
-      <c r="F70" s="3">
-        <v>184</v>
-      </c>
-      <c r="G70" s="3">
-        <v>480</v>
-      </c>
-      <c r="H70" s="3">
-        <v>762</v>
-      </c>
-      <c r="I70" s="3">
-        <v>632</v>
-      </c>
-      <c r="J70" s="3">
-        <v>584</v>
-      </c>
-      <c r="K70" s="3">
-        <v>507</v>
-      </c>
-      <c r="L70" s="3">
-        <v>214</v>
-      </c>
-      <c r="M70" s="3">
-        <v>114</v>
-      </c>
-      <c r="N70" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="6">
+        <v>740</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="6">
+        <v>3</v>
+      </c>
+      <c r="E70" s="6">
+        <v>13</v>
+      </c>
+      <c r="F70" s="6">
+        <v>33</v>
+      </c>
+      <c r="G70" s="6">
+        <v>109</v>
+      </c>
+      <c r="H70" s="6">
+        <v>172</v>
+      </c>
+      <c r="I70" s="6">
+        <v>112</v>
+      </c>
+      <c r="J70" s="6">
+        <v>131</v>
+      </c>
+      <c r="K70" s="6">
+        <v>91</v>
+      </c>
+      <c r="L70" s="6">
+        <v>43</v>
+      </c>
+      <c r="M70" s="6">
+        <v>21</v>
+      </c>
+      <c r="N70" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B71" s="6">
-        <v>983</v>
+        <v>2070</v>
       </c>
       <c r="C71" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D71" s="6">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E71" s="6">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F71" s="6">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="G71" s="6">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="H71" s="6">
-        <v>185</v>
+        <v>405</v>
       </c>
       <c r="I71" s="6">
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="J71" s="6">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="K71" s="6">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="L71" s="6">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="M71" s="6">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N71" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="6">
-        <v>740</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="6">
-        <v>3</v>
-      </c>
-      <c r="E72" s="6">
-        <v>13</v>
-      </c>
-      <c r="F72" s="6">
-        <v>33</v>
-      </c>
-      <c r="G72" s="6">
-        <v>109</v>
-      </c>
-      <c r="H72" s="6">
-        <v>172</v>
-      </c>
-      <c r="I72" s="6">
-        <v>112</v>
-      </c>
-      <c r="J72" s="6">
-        <v>131</v>
-      </c>
-      <c r="K72" s="6">
-        <v>91</v>
-      </c>
-      <c r="L72" s="6">
-        <v>43</v>
-      </c>
-      <c r="M72" s="6">
-        <v>21</v>
-      </c>
-      <c r="N72" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B72" s="3">
+        <v>6396</v>
+      </c>
+      <c r="C72" s="3">
+        <v>120</v>
+      </c>
+      <c r="D72" s="3">
+        <v>120</v>
+      </c>
+      <c r="E72" s="3">
+        <v>201</v>
+      </c>
+      <c r="F72" s="3">
+        <v>319</v>
+      </c>
+      <c r="G72" s="3">
+        <v>721</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1524</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1045</v>
+      </c>
+      <c r="J72" s="3">
+        <v>874</v>
+      </c>
+      <c r="K72" s="3">
+        <v>786</v>
+      </c>
+      <c r="L72" s="3">
+        <v>378</v>
+      </c>
+      <c r="M72" s="3">
+        <v>203</v>
+      </c>
+      <c r="N72" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B73" s="6">
-        <v>2070</v>
+        <v>1683</v>
       </c>
       <c r="C73" s="6">
+        <v>14</v>
+      </c>
+      <c r="D73" s="6">
+        <v>6</v>
+      </c>
+      <c r="E73" s="6">
+        <v>26</v>
+      </c>
+      <c r="F73" s="6">
+        <v>120</v>
+      </c>
+      <c r="G73" s="6">
+        <v>153</v>
+      </c>
+      <c r="H73" s="6">
+        <v>442</v>
+      </c>
+      <c r="I73" s="6">
+        <v>319</v>
+      </c>
+      <c r="J73" s="6">
+        <v>297</v>
+      </c>
+      <c r="K73" s="6">
+        <v>175</v>
+      </c>
+      <c r="L73" s="6">
+        <v>57</v>
+      </c>
+      <c r="M73" s="6">
+        <v>45</v>
+      </c>
+      <c r="N73" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="6">
+        <v>789</v>
+      </c>
+      <c r="C74" s="6">
+        <v>13</v>
+      </c>
+      <c r="D74" s="6">
+        <v>23</v>
+      </c>
+      <c r="E74" s="6">
         <v>25</v>
       </c>
-      <c r="D73" s="6">
-        <v>41</v>
-      </c>
-      <c r="E73" s="6">
-        <v>99</v>
-      </c>
-      <c r="F73" s="6">
-        <v>95</v>
-      </c>
-      <c r="G73" s="6">
-        <v>237</v>
-      </c>
-      <c r="H73" s="6">
-        <v>405</v>
-      </c>
-      <c r="I73" s="6">
-        <v>347</v>
-      </c>
-      <c r="J73" s="6">
-        <v>317</v>
-      </c>
-      <c r="K73" s="6">
-        <v>302</v>
-      </c>
-      <c r="L73" s="6">
-        <v>119</v>
-      </c>
-      <c r="M73" s="6">
-        <v>59</v>
-      </c>
-      <c r="N73" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="3">
-        <v>6396</v>
-      </c>
-      <c r="C74" s="3">
-        <v>120</v>
-      </c>
-      <c r="D74" s="3">
-        <v>120</v>
-      </c>
-      <c r="E74" s="3">
-        <v>201</v>
-      </c>
-      <c r="F74" s="3">
-        <v>319</v>
-      </c>
-      <c r="G74" s="3">
-        <v>721</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1524</v>
-      </c>
-      <c r="I74" s="3">
-        <v>1045</v>
-      </c>
-      <c r="J74" s="3">
-        <v>874</v>
-      </c>
-      <c r="K74" s="3">
-        <v>786</v>
-      </c>
-      <c r="L74" s="3">
-        <v>378</v>
-      </c>
-      <c r="M74" s="3">
-        <v>203</v>
-      </c>
-      <c r="N74" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F74" s="6">
+        <v>19</v>
+      </c>
+      <c r="G74" s="6">
+        <v>76</v>
+      </c>
+      <c r="H74" s="6">
+        <v>159</v>
+      </c>
+      <c r="I74" s="6">
+        <v>106</v>
+      </c>
+      <c r="J74" s="6">
+        <v>108</v>
+      </c>
+      <c r="K74" s="6">
+        <v>112</v>
+      </c>
+      <c r="L74" s="6">
+        <v>87</v>
+      </c>
+      <c r="M74" s="6">
+        <v>33</v>
+      </c>
+      <c r="N74" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B75" s="6">
-        <v>1683</v>
+        <v>1362</v>
       </c>
       <c r="C75" s="6">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D75" s="6">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E75" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F75" s="6">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="G75" s="6">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="H75" s="6">
-        <v>442</v>
+        <v>371</v>
       </c>
       <c r="I75" s="6">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="J75" s="6">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="K75" s="6">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="L75" s="6">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="M75" s="6">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N75" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B76" s="6">
-        <v>789</v>
+        <v>2562</v>
       </c>
       <c r="C76" s="6">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D76" s="6">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="E76" s="6">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="F76" s="6">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="G76" s="6">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="H76" s="6">
-        <v>159</v>
+        <v>552</v>
       </c>
       <c r="I76" s="6">
-        <v>106</v>
+        <v>396</v>
       </c>
       <c r="J76" s="6">
-        <v>108</v>
+        <v>308</v>
       </c>
       <c r="K76" s="6">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="L76" s="6">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="M76" s="6">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="N76" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="6">
-        <v>1362</v>
-      </c>
-      <c r="C77" s="6">
+      <c r="B77" s="3">
+        <v>3499</v>
+      </c>
+      <c r="C77" s="3">
         <v>32</v>
       </c>
-      <c r="D77" s="6">
-        <v>21</v>
-      </c>
-      <c r="E77" s="6">
-        <v>21</v>
-      </c>
-      <c r="F77" s="6">
-        <v>38</v>
-      </c>
-      <c r="G77" s="6">
-        <v>125</v>
-      </c>
-      <c r="H77" s="6">
-        <v>371</v>
-      </c>
-      <c r="I77" s="6">
-        <v>224</v>
-      </c>
-      <c r="J77" s="6">
-        <v>161</v>
-      </c>
-      <c r="K77" s="6">
-        <v>209</v>
-      </c>
-      <c r="L77" s="6">
-        <v>100</v>
-      </c>
-      <c r="M77" s="6">
-        <v>50</v>
-      </c>
-      <c r="N77" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D77" s="3">
+        <v>43</v>
+      </c>
+      <c r="E77" s="3">
+        <v>140</v>
+      </c>
+      <c r="F77" s="3">
+        <v>256</v>
+      </c>
+      <c r="G77" s="3">
+        <v>505</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1057</v>
+      </c>
+      <c r="I77" s="3">
+        <v>641</v>
+      </c>
+      <c r="J77" s="3">
+        <v>336</v>
+      </c>
+      <c r="K77" s="3">
+        <v>245</v>
+      </c>
+      <c r="L77" s="3">
+        <v>154</v>
+      </c>
+      <c r="M77" s="3">
+        <v>48</v>
+      </c>
+      <c r="N77" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B78" s="6">
-        <v>2562</v>
+        <v>277</v>
       </c>
       <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1</v>
+      </c>
+      <c r="E78" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" s="6">
+        <v>29</v>
+      </c>
+      <c r="G78" s="6">
+        <v>21</v>
+      </c>
+      <c r="H78" s="6">
+        <v>54</v>
+      </c>
+      <c r="I78" s="6">
+        <v>65</v>
+      </c>
+      <c r="J78" s="6">
         <v>61</v>
       </c>
-      <c r="D78" s="6">
-        <v>70</v>
-      </c>
-      <c r="E78" s="6">
-        <v>129</v>
-      </c>
-      <c r="F78" s="6">
-        <v>142</v>
-      </c>
-      <c r="G78" s="6">
-        <v>367</v>
-      </c>
-      <c r="H78" s="6">
-        <v>552</v>
-      </c>
-      <c r="I78" s="6">
-        <v>396</v>
-      </c>
-      <c r="J78" s="6">
-        <v>308</v>
-      </c>
       <c r="K78" s="6">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="L78" s="6">
-        <v>134</v>
-      </c>
-      <c r="M78" s="6">
-        <v>75</v>
-      </c>
-      <c r="N78" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="3">
-        <v>3499</v>
-      </c>
-      <c r="C79" s="3">
+      <c r="B79" s="6">
+        <v>1893</v>
+      </c>
+      <c r="C79" s="6">
+        <v>14</v>
+      </c>
+      <c r="D79" s="6">
+        <v>19</v>
+      </c>
+      <c r="E79" s="6">
+        <v>60</v>
+      </c>
+      <c r="F79" s="6">
+        <v>89</v>
+      </c>
+      <c r="G79" s="6">
+        <v>256</v>
+      </c>
+      <c r="H79" s="6">
+        <v>618</v>
+      </c>
+      <c r="I79" s="6">
+        <v>320</v>
+      </c>
+      <c r="J79" s="6">
+        <v>181</v>
+      </c>
+      <c r="K79" s="6">
+        <v>149</v>
+      </c>
+      <c r="L79" s="6">
+        <v>114</v>
+      </c>
+      <c r="M79" s="6">
+        <v>41</v>
+      </c>
+      <c r="N79" s="6">
         <v>32</v>
       </c>
-      <c r="D79" s="3">
-        <v>43</v>
-      </c>
-      <c r="E79" s="3">
-        <v>140</v>
-      </c>
-      <c r="F79" s="3">
-        <v>256</v>
-      </c>
-      <c r="G79" s="3">
-        <v>505</v>
-      </c>
-      <c r="H79" s="3">
-        <v>1057</v>
-      </c>
-      <c r="I79" s="3">
-        <v>641</v>
-      </c>
-      <c r="J79" s="3">
-        <v>336</v>
-      </c>
-      <c r="K79" s="3">
-        <v>245</v>
-      </c>
-      <c r="L79" s="3">
-        <v>154</v>
-      </c>
-      <c r="M79" s="3">
-        <v>48</v>
-      </c>
-      <c r="N79" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B80" s="6">
-        <v>277</v>
+        <v>1046</v>
       </c>
       <c r="C80" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D80" s="6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E80" s="6">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F80" s="6">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="G80" s="6">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="H80" s="6">
-        <v>54</v>
+        <v>306</v>
       </c>
       <c r="I80" s="6">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="J80" s="6">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="K80" s="6">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="L80" s="6">
-        <v>15</v>
-      </c>
-      <c r="M80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N80" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="M80" s="6">
+        <v>7</v>
+      </c>
+      <c r="N80" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B81" s="6">
-        <v>1893</v>
+        <v>283</v>
       </c>
       <c r="C81" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E81" s="6">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="F81" s="6">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="G81" s="6">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="H81" s="6">
-        <v>618</v>
+        <v>79</v>
       </c>
       <c r="I81" s="6">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="J81" s="6">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="K81" s="6">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="L81" s="6">
-        <v>114</v>
-      </c>
-      <c r="M81" s="6">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="N81" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="6">
-        <v>1046</v>
-      </c>
-      <c r="C82" s="6">
-        <v>14</v>
-      </c>
-      <c r="D82" s="6">
-        <v>20</v>
-      </c>
-      <c r="E82" s="6">
-        <v>57</v>
-      </c>
-      <c r="F82" s="6">
-        <v>105</v>
-      </c>
-      <c r="G82" s="6">
-        <v>158</v>
-      </c>
-      <c r="H82" s="6">
-        <v>306</v>
-      </c>
-      <c r="I82" s="6">
-        <v>211</v>
-      </c>
-      <c r="J82" s="6">
-        <v>79</v>
-      </c>
-      <c r="K82" s="6">
-        <v>58</v>
-      </c>
-      <c r="L82" s="6">
-        <v>22</v>
-      </c>
-      <c r="M82" s="6">
+      <c r="B82" s="3">
+        <v>11903</v>
+      </c>
+      <c r="C82" s="3">
+        <v>544</v>
+      </c>
+      <c r="D82" s="3">
+        <v>416</v>
+      </c>
+      <c r="E82" s="3">
+        <v>459</v>
+      </c>
+      <c r="F82" s="3">
+        <v>709</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1584</v>
+      </c>
+      <c r="H82" s="3">
+        <v>2194</v>
+      </c>
+      <c r="I82" s="3">
+        <v>1661</v>
+      </c>
+      <c r="J82" s="3">
+        <v>1173</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1029</v>
+      </c>
+      <c r="L82" s="3">
+        <v>757</v>
+      </c>
+      <c r="M82" s="3">
+        <v>768</v>
+      </c>
+      <c r="N82" s="3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2409</v>
+      </c>
+      <c r="C83" s="3">
+        <v>95</v>
+      </c>
+      <c r="D83" s="3">
+        <v>70</v>
+      </c>
+      <c r="E83" s="3">
+        <v>88</v>
+      </c>
+      <c r="F83" s="3">
+        <v>170</v>
+      </c>
+      <c r="G83" s="3">
+        <v>415</v>
+      </c>
+      <c r="H83" s="3">
+        <v>483</v>
+      </c>
+      <c r="I83" s="3">
+        <v>348</v>
+      </c>
+      <c r="J83" s="3">
+        <v>237</v>
+      </c>
+      <c r="K83" s="3">
+        <v>225</v>
+      </c>
+      <c r="L83" s="3">
+        <v>110</v>
+      </c>
+      <c r="M83" s="3">
+        <v>101</v>
+      </c>
+      <c r="N83" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="6">
+        <v>1093</v>
+      </c>
+      <c r="C84" s="6">
+        <v>30</v>
+      </c>
+      <c r="D84" s="6">
+        <v>12</v>
+      </c>
+      <c r="E84" s="6">
+        <v>29</v>
+      </c>
+      <c r="F84" s="6">
+        <v>74</v>
+      </c>
+      <c r="G84" s="6">
+        <v>167</v>
+      </c>
+      <c r="H84" s="6">
+        <v>214</v>
+      </c>
+      <c r="I84" s="6">
+        <v>176</v>
+      </c>
+      <c r="J84" s="6">
+        <v>136</v>
+      </c>
+      <c r="K84" s="6">
+        <v>121</v>
+      </c>
+      <c r="L84" s="6">
+        <v>56</v>
+      </c>
+      <c r="M84" s="6">
+        <v>45</v>
+      </c>
+      <c r="N84" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="6">
+        <v>131</v>
+      </c>
+      <c r="C85" s="6">
+        <v>10</v>
+      </c>
+      <c r="D85" s="6">
+        <v>3</v>
+      </c>
+      <c r="E85" s="6">
+        <v>11</v>
+      </c>
+      <c r="F85" s="6">
+        <v>10</v>
+      </c>
+      <c r="G85" s="6">
+        <v>6</v>
+      </c>
+      <c r="H85" s="6">
+        <v>15</v>
+      </c>
+      <c r="I85" s="6">
+        <v>28</v>
+      </c>
+      <c r="J85" s="6">
+        <v>11</v>
+      </c>
+      <c r="K85" s="6">
+        <v>15</v>
+      </c>
+      <c r="L85" s="6">
         <v>7</v>
       </c>
-      <c r="N82" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" s="6">
-        <v>283</v>
-      </c>
-      <c r="C83" s="6">
-        <v>3</v>
-      </c>
-      <c r="D83" s="6">
-        <v>3</v>
-      </c>
-      <c r="E83" s="6">
-        <v>21</v>
-      </c>
-      <c r="F83" s="6">
-        <v>33</v>
-      </c>
-      <c r="G83" s="6">
-        <v>70</v>
-      </c>
-      <c r="H83" s="6">
-        <v>79</v>
-      </c>
-      <c r="I83" s="6">
-        <v>45</v>
-      </c>
-      <c r="J83" s="6">
-        <v>15</v>
-      </c>
-      <c r="K83" s="6">
-        <v>10</v>
-      </c>
-      <c r="L83" s="6">
-        <v>3</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N83" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="3">
-        <v>11903</v>
-      </c>
-      <c r="C84" s="3">
-        <v>544</v>
-      </c>
-      <c r="D84" s="3">
-        <v>416</v>
-      </c>
-      <c r="E84" s="3">
-        <v>459</v>
-      </c>
-      <c r="F84" s="3">
-        <v>709</v>
-      </c>
-      <c r="G84" s="3">
-        <v>1584</v>
-      </c>
-      <c r="H84" s="3">
-        <v>2194</v>
-      </c>
-      <c r="I84" s="3">
-        <v>1661</v>
-      </c>
-      <c r="J84" s="3">
-        <v>1173</v>
-      </c>
-      <c r="K84" s="3">
-        <v>1029</v>
-      </c>
-      <c r="L84" s="3">
-        <v>757</v>
-      </c>
-      <c r="M84" s="3">
-        <v>768</v>
-      </c>
-      <c r="N84" s="3">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B85" s="3">
-        <v>2409</v>
-      </c>
-      <c r="C85" s="3">
-        <v>95</v>
-      </c>
-      <c r="D85" s="3">
-        <v>70</v>
-      </c>
-      <c r="E85" s="3">
-        <v>88</v>
-      </c>
-      <c r="F85" s="3">
-        <v>170</v>
-      </c>
-      <c r="G85" s="3">
-        <v>415</v>
-      </c>
-      <c r="H85" s="3">
-        <v>483</v>
-      </c>
-      <c r="I85" s="3">
-        <v>348</v>
-      </c>
-      <c r="J85" s="3">
-        <v>237</v>
-      </c>
-      <c r="K85" s="3">
-        <v>225</v>
-      </c>
-      <c r="L85" s="3">
-        <v>110</v>
-      </c>
-      <c r="M85" s="3">
-        <v>101</v>
-      </c>
-      <c r="N85" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M85" s="6">
+        <v>13</v>
+      </c>
+      <c r="N85" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B86" s="6">
-        <v>1093</v>
+        <v>1185</v>
       </c>
       <c r="C86" s="6">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D86" s="6">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E86" s="6">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F86" s="6">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G86" s="6">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="H86" s="6">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="I86" s="6">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="J86" s="6">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="K86" s="6">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="L86" s="6">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M86" s="6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N86" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="6">
-        <v>131</v>
-      </c>
-      <c r="C87" s="6">
-        <v>10</v>
-      </c>
-      <c r="D87" s="6">
-        <v>3</v>
-      </c>
-      <c r="E87" s="6">
-        <v>11</v>
-      </c>
-      <c r="F87" s="6">
-        <v>10</v>
-      </c>
-      <c r="G87" s="6">
-        <v>6</v>
-      </c>
-      <c r="H87" s="6">
-        <v>15</v>
-      </c>
-      <c r="I87" s="6">
-        <v>28</v>
-      </c>
-      <c r="J87" s="6">
-        <v>11</v>
-      </c>
-      <c r="K87" s="6">
-        <v>15</v>
-      </c>
-      <c r="L87" s="6">
-        <v>7</v>
-      </c>
-      <c r="M87" s="6">
-        <v>13</v>
-      </c>
-      <c r="N87" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B87" s="3">
+        <v>1969</v>
+      </c>
+      <c r="C87" s="3">
+        <v>84</v>
+      </c>
+      <c r="D87" s="3">
+        <v>69</v>
+      </c>
+      <c r="E87" s="3">
+        <v>73</v>
+      </c>
+      <c r="F87" s="3">
+        <v>111</v>
+      </c>
+      <c r="G87" s="3">
+        <v>294</v>
+      </c>
+      <c r="H87" s="3">
+        <v>372</v>
+      </c>
+      <c r="I87" s="3">
+        <v>310</v>
+      </c>
+      <c r="J87" s="3">
+        <v>153</v>
+      </c>
+      <c r="K87" s="3">
+        <v>124</v>
+      </c>
+      <c r="L87" s="3">
+        <v>118</v>
+      </c>
+      <c r="M87" s="3">
+        <v>139</v>
+      </c>
+      <c r="N87" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B88" s="6">
-        <v>1185</v>
+        <v>1103</v>
       </c>
       <c r="C88" s="6">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D88" s="6">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E88" s="6">
+        <v>50</v>
+      </c>
+      <c r="F88" s="6">
+        <v>76</v>
+      </c>
+      <c r="G88" s="6">
+        <v>183</v>
+      </c>
+      <c r="H88" s="6">
+        <v>209</v>
+      </c>
+      <c r="I88" s="6">
+        <v>167</v>
+      </c>
+      <c r="J88" s="6">
+        <v>70</v>
+      </c>
+      <c r="K88" s="6">
+        <v>50</v>
+      </c>
+      <c r="L88" s="6">
+        <v>51</v>
+      </c>
+      <c r="M88" s="6">
+        <v>67</v>
+      </c>
+      <c r="N88" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="6">
+        <v>606</v>
+      </c>
+      <c r="C89" s="6">
+        <v>12</v>
+      </c>
+      <c r="D89" s="6">
+        <v>14</v>
+      </c>
+      <c r="E89" s="6">
+        <v>21</v>
+      </c>
+      <c r="F89" s="6">
+        <v>17</v>
+      </c>
+      <c r="G89" s="6">
         <v>48</v>
       </c>
-      <c r="F88" s="6">
-        <v>86</v>
-      </c>
-      <c r="G88" s="6">
-        <v>242</v>
-      </c>
-      <c r="H88" s="6">
-        <v>254</v>
-      </c>
-      <c r="I88" s="6">
-        <v>144</v>
-      </c>
-      <c r="J88" s="6">
-        <v>90</v>
-      </c>
-      <c r="K88" s="6">
-        <v>89</v>
-      </c>
-      <c r="L88" s="6">
-        <v>47</v>
-      </c>
-      <c r="M88" s="6">
-        <v>43</v>
-      </c>
-      <c r="N88" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" s="3">
-        <v>1969</v>
-      </c>
-      <c r="C89" s="3">
-        <v>84</v>
-      </c>
-      <c r="D89" s="3">
-        <v>69</v>
-      </c>
-      <c r="E89" s="3">
-        <v>73</v>
-      </c>
-      <c r="F89" s="3">
-        <v>111</v>
-      </c>
-      <c r="G89" s="3">
-        <v>294</v>
-      </c>
-      <c r="H89" s="3">
-        <v>372</v>
-      </c>
-      <c r="I89" s="3">
-        <v>310</v>
-      </c>
-      <c r="J89" s="3">
-        <v>153</v>
-      </c>
-      <c r="K89" s="3">
-        <v>124</v>
-      </c>
-      <c r="L89" s="3">
-        <v>118</v>
-      </c>
-      <c r="M89" s="3">
-        <v>139</v>
-      </c>
-      <c r="N89" s="3">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H89" s="6">
+        <v>110</v>
+      </c>
+      <c r="I89" s="6">
+        <v>114</v>
+      </c>
+      <c r="J89" s="6">
+        <v>58</v>
+      </c>
+      <c r="K89" s="6">
+        <v>59</v>
+      </c>
+      <c r="L89" s="6">
+        <v>49</v>
+      </c>
+      <c r="M89" s="6">
+        <v>48</v>
+      </c>
+      <c r="N89" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B90" s="6">
-        <v>1103</v>
+        <v>260</v>
       </c>
       <c r="C90" s="6">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="D90" s="6">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="E90" s="6">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F90" s="6">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="G90" s="6">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="H90" s="6">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="I90" s="6">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="J90" s="6">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K90" s="6">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L90" s="6">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M90" s="6">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="N90" s="6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="6">
-        <v>606</v>
-      </c>
-      <c r="C91" s="6">
-        <v>12</v>
-      </c>
-      <c r="D91" s="6">
-        <v>14</v>
-      </c>
-      <c r="E91" s="6">
-        <v>21</v>
-      </c>
-      <c r="F91" s="6">
-        <v>17</v>
-      </c>
-      <c r="G91" s="6">
-        <v>48</v>
-      </c>
-      <c r="H91" s="6">
-        <v>110</v>
-      </c>
-      <c r="I91" s="6">
-        <v>114</v>
-      </c>
-      <c r="J91" s="6">
-        <v>58</v>
-      </c>
-      <c r="K91" s="6">
-        <v>59</v>
-      </c>
-      <c r="L91" s="6">
-        <v>49</v>
-      </c>
-      <c r="M91" s="6">
-        <v>48</v>
-      </c>
-      <c r="N91" s="6">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="3">
+        <v>1493</v>
+      </c>
+      <c r="C91" s="3">
+        <v>29</v>
+      </c>
+      <c r="D91" s="3">
+        <v>35</v>
+      </c>
+      <c r="E91" s="3">
+        <v>46</v>
+      </c>
+      <c r="F91" s="3">
+        <v>89</v>
+      </c>
+      <c r="G91" s="3">
+        <v>171</v>
+      </c>
+      <c r="H91" s="3">
+        <v>319</v>
+      </c>
+      <c r="I91" s="3">
+        <v>232</v>
+      </c>
+      <c r="J91" s="3">
+        <v>176</v>
+      </c>
+      <c r="K91" s="3">
+        <v>108</v>
+      </c>
+      <c r="L91" s="3">
+        <v>84</v>
+      </c>
+      <c r="M91" s="3">
+        <v>101</v>
+      </c>
+      <c r="N91" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B92" s="6">
-        <v>260</v>
+        <v>665</v>
       </c>
       <c r="C92" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D92" s="6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E92" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F92" s="6">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G92" s="6">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H92" s="6">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="I92" s="6">
+        <v>104</v>
+      </c>
+      <c r="J92" s="6">
+        <v>79</v>
+      </c>
+      <c r="K92" s="6">
+        <v>49</v>
+      </c>
+      <c r="L92" s="6">
+        <v>35</v>
+      </c>
+      <c r="M92" s="6">
+        <v>46</v>
+      </c>
+      <c r="N92" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="6">
+        <v>332</v>
+      </c>
+      <c r="C93" s="6">
+        <v>14</v>
+      </c>
+      <c r="D93" s="6">
+        <v>12</v>
+      </c>
+      <c r="E93" s="6">
+        <v>15</v>
+      </c>
+      <c r="F93" s="6">
+        <v>33</v>
+      </c>
+      <c r="G93" s="6">
+        <v>48</v>
+      </c>
+      <c r="H93" s="6">
+        <v>72</v>
+      </c>
+      <c r="I93" s="6">
+        <v>43</v>
+      </c>
+      <c r="J93" s="6">
         <v>29</v>
       </c>
-      <c r="J92" s="6">
-        <v>25</v>
-      </c>
-      <c r="K92" s="6">
-        <v>15</v>
-      </c>
-      <c r="L92" s="6">
-        <v>18</v>
-      </c>
-      <c r="M92" s="6">
-        <v>24</v>
-      </c>
-      <c r="N92" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93" s="3">
-        <v>1493</v>
-      </c>
-      <c r="C93" s="3">
-        <v>29</v>
-      </c>
-      <c r="D93" s="3">
-        <v>35</v>
-      </c>
-      <c r="E93" s="3">
-        <v>46</v>
-      </c>
-      <c r="F93" s="3">
-        <v>89</v>
-      </c>
-      <c r="G93" s="3">
-        <v>171</v>
-      </c>
-      <c r="H93" s="3">
-        <v>319</v>
-      </c>
-      <c r="I93" s="3">
-        <v>232</v>
-      </c>
-      <c r="J93" s="3">
-        <v>176</v>
-      </c>
-      <c r="K93" s="3">
-        <v>108</v>
-      </c>
-      <c r="L93" s="3">
-        <v>84</v>
-      </c>
-      <c r="M93" s="3">
-        <v>101</v>
-      </c>
-      <c r="N93" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K93" s="6">
+        <v>12</v>
+      </c>
+      <c r="L93" s="6">
+        <v>26</v>
+      </c>
+      <c r="M93" s="6">
+        <v>19</v>
+      </c>
+      <c r="N93" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B94" s="6">
-        <v>665</v>
+        <v>496</v>
       </c>
       <c r="C94" s="6">
+        <v>5</v>
+      </c>
+      <c r="D94" s="6">
         <v>10</v>
       </c>
-      <c r="D94" s="6">
-        <v>13</v>
-      </c>
       <c r="E94" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F94" s="6">
+        <v>20</v>
+      </c>
+      <c r="G94" s="6">
+        <v>47</v>
+      </c>
+      <c r="H94" s="6">
+        <v>94</v>
+      </c>
+      <c r="I94" s="6">
+        <v>85</v>
+      </c>
+      <c r="J94" s="6">
+        <v>68</v>
+      </c>
+      <c r="K94" s="6">
+        <v>47</v>
+      </c>
+      <c r="L94" s="6">
+        <v>23</v>
+      </c>
+      <c r="M94" s="6">
         <v>36</v>
       </c>
-      <c r="G94" s="6">
-        <v>76</v>
-      </c>
-      <c r="H94" s="6">
-        <v>153</v>
-      </c>
-      <c r="I94" s="6">
-        <v>104</v>
-      </c>
-      <c r="J94" s="6">
-        <v>79</v>
-      </c>
-      <c r="K94" s="6">
-        <v>49</v>
-      </c>
-      <c r="L94" s="6">
-        <v>35</v>
-      </c>
-      <c r="M94" s="6">
-        <v>46</v>
-      </c>
       <c r="N94" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B95" s="6">
-        <v>332</v>
-      </c>
-      <c r="C95" s="6">
-        <v>14</v>
-      </c>
-      <c r="D95" s="6">
-        <v>12</v>
-      </c>
-      <c r="E95" s="6">
-        <v>15</v>
-      </c>
-      <c r="F95" s="6">
-        <v>33</v>
-      </c>
-      <c r="G95" s="6">
-        <v>48</v>
-      </c>
-      <c r="H95" s="6">
-        <v>72</v>
-      </c>
-      <c r="I95" s="6">
-        <v>43</v>
-      </c>
-      <c r="J95" s="6">
-        <v>29</v>
-      </c>
-      <c r="K95" s="6">
-        <v>12</v>
-      </c>
-      <c r="L95" s="6">
-        <v>26</v>
-      </c>
-      <c r="M95" s="6">
-        <v>19</v>
-      </c>
-      <c r="N95" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="3">
+        <v>3457</v>
+      </c>
+      <c r="C95" s="3">
+        <v>175</v>
+      </c>
+      <c r="D95" s="3">
+        <v>134</v>
+      </c>
+      <c r="E95" s="3">
+        <v>140</v>
+      </c>
+      <c r="F95" s="3">
+        <v>140</v>
+      </c>
+      <c r="G95" s="3">
+        <v>308</v>
+      </c>
+      <c r="H95" s="3">
+        <v>575</v>
+      </c>
+      <c r="I95" s="3">
+        <v>475</v>
+      </c>
+      <c r="J95" s="3">
+        <v>381</v>
+      </c>
+      <c r="K95" s="3">
+        <v>378</v>
+      </c>
+      <c r="L95" s="3">
+        <v>279</v>
+      </c>
+      <c r="M95" s="3">
+        <v>281</v>
+      </c>
+      <c r="N95" s="3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B96" s="6">
-        <v>496</v>
+        <v>1519</v>
       </c>
       <c r="C96" s="6">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D96" s="6">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E96" s="6">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F96" s="6">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G96" s="6">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="H96" s="6">
-        <v>94</v>
+        <v>201</v>
       </c>
       <c r="I96" s="6">
-        <v>85</v>
+        <v>286</v>
       </c>
       <c r="J96" s="6">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="K96" s="6">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="L96" s="6">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="M96" s="6">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="N96" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="3">
-        <v>3457</v>
-      </c>
-      <c r="C97" s="3">
-        <v>175</v>
-      </c>
-      <c r="D97" s="3">
-        <v>134</v>
-      </c>
-      <c r="E97" s="3">
-        <v>140</v>
-      </c>
-      <c r="F97" s="3">
-        <v>140</v>
-      </c>
-      <c r="G97" s="3">
-        <v>308</v>
-      </c>
-      <c r="H97" s="3">
-        <v>575</v>
-      </c>
-      <c r="I97" s="3">
-        <v>475</v>
-      </c>
-      <c r="J97" s="3">
-        <v>381</v>
-      </c>
-      <c r="K97" s="3">
-        <v>378</v>
-      </c>
-      <c r="L97" s="3">
-        <v>279</v>
-      </c>
-      <c r="M97" s="3">
-        <v>281</v>
-      </c>
-      <c r="N97" s="3">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B97" s="6">
+        <v>1158</v>
+      </c>
+      <c r="C97" s="6">
+        <v>82</v>
+      </c>
+      <c r="D97" s="6">
+        <v>55</v>
+      </c>
+      <c r="E97" s="6">
+        <v>73</v>
+      </c>
+      <c r="F97" s="6">
+        <v>74</v>
+      </c>
+      <c r="G97" s="6">
+        <v>149</v>
+      </c>
+      <c r="H97" s="6">
+        <v>234</v>
+      </c>
+      <c r="I97" s="6">
+        <v>81</v>
+      </c>
+      <c r="J97" s="6">
+        <v>76</v>
+      </c>
+      <c r="K97" s="6">
+        <v>59</v>
+      </c>
+      <c r="L97" s="6">
+        <v>70</v>
+      </c>
+      <c r="M97" s="6">
+        <v>106</v>
+      </c>
+      <c r="N97" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B98" s="6">
-        <v>1519</v>
+        <v>780</v>
       </c>
       <c r="C98" s="6">
+        <v>55</v>
+      </c>
+      <c r="D98" s="6">
+        <v>50</v>
+      </c>
+      <c r="E98" s="6">
+        <v>33</v>
+      </c>
+      <c r="F98" s="6">
+        <v>32</v>
+      </c>
+      <c r="G98" s="6">
+        <v>71</v>
+      </c>
+      <c r="H98" s="6">
+        <v>140</v>
+      </c>
+      <c r="I98" s="6">
+        <v>108</v>
+      </c>
+      <c r="J98" s="6">
+        <v>92</v>
+      </c>
+      <c r="K98" s="6">
+        <v>83</v>
+      </c>
+      <c r="L98" s="6">
+        <v>41</v>
+      </c>
+      <c r="M98" s="6">
         <v>38</v>
       </c>
-      <c r="D98" s="6">
-        <v>29</v>
-      </c>
-      <c r="E98" s="6">
-        <v>34</v>
-      </c>
-      <c r="F98" s="6">
-        <v>34</v>
-      </c>
-      <c r="G98" s="6">
-        <v>88</v>
-      </c>
-      <c r="H98" s="6">
-        <v>201</v>
-      </c>
-      <c r="I98" s="6">
-        <v>286</v>
-      </c>
-      <c r="J98" s="6">
-        <v>213</v>
-      </c>
-      <c r="K98" s="6">
-        <v>236</v>
-      </c>
-      <c r="L98" s="6">
-        <v>168</v>
-      </c>
-      <c r="M98" s="6">
-        <v>137</v>
-      </c>
       <c r="N98" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="6">
-        <v>1158</v>
-      </c>
-      <c r="C99" s="6">
-        <v>82</v>
-      </c>
-      <c r="D99" s="6">
-        <v>55</v>
-      </c>
-      <c r="E99" s="6">
-        <v>73</v>
-      </c>
-      <c r="F99" s="6">
-        <v>74</v>
-      </c>
-      <c r="G99" s="6">
-        <v>149</v>
-      </c>
-      <c r="H99" s="6">
-        <v>234</v>
-      </c>
-      <c r="I99" s="6">
-        <v>81</v>
-      </c>
-      <c r="J99" s="6">
-        <v>76</v>
-      </c>
-      <c r="K99" s="6">
-        <v>59</v>
-      </c>
-      <c r="L99" s="6">
-        <v>70</v>
-      </c>
-      <c r="M99" s="6">
-        <v>106</v>
-      </c>
-      <c r="N99" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B99" s="3">
+        <v>2575</v>
+      </c>
+      <c r="C99" s="3">
+        <v>161</v>
+      </c>
+      <c r="D99" s="3">
+        <v>108</v>
+      </c>
+      <c r="E99" s="3">
+        <v>112</v>
+      </c>
+      <c r="F99" s="3">
+        <v>199</v>
+      </c>
+      <c r="G99" s="3">
+        <v>396</v>
+      </c>
+      <c r="H99" s="3">
+        <v>445</v>
+      </c>
+      <c r="I99" s="3">
+        <v>296</v>
+      </c>
+      <c r="J99" s="3">
+        <v>226</v>
+      </c>
+      <c r="K99" s="3">
+        <v>194</v>
+      </c>
+      <c r="L99" s="3">
+        <v>166</v>
+      </c>
+      <c r="M99" s="3">
+        <v>146</v>
+      </c>
+      <c r="N99" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B100" s="6">
-        <v>780</v>
+        <v>175</v>
       </c>
       <c r="C100" s="6">
-        <v>55</v>
-      </c>
-      <c r="D100" s="6">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E100" s="6">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F100" s="6">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G100" s="6">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="H100" s="6">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="I100" s="6">
+        <v>40</v>
+      </c>
+      <c r="J100" s="6">
+        <v>12</v>
+      </c>
+      <c r="K100" s="6">
+        <v>12</v>
+      </c>
+      <c r="L100" s="6">
+        <v>12</v>
+      </c>
+      <c r="M100" s="6">
+        <v>20</v>
+      </c>
+      <c r="N100" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="6">
+        <v>2400</v>
+      </c>
+      <c r="C101" s="6">
+        <v>158</v>
+      </c>
+      <c r="D101" s="6">
         <v>108</v>
       </c>
-      <c r="J100" s="6">
-        <v>92</v>
-      </c>
-      <c r="K100" s="6">
-        <v>83</v>
-      </c>
-      <c r="L100" s="6">
-        <v>41</v>
-      </c>
-      <c r="M100" s="6">
-        <v>38</v>
-      </c>
-      <c r="N100" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" s="3">
-        <v>2575</v>
-      </c>
-      <c r="C101" s="3">
-        <v>161</v>
-      </c>
-      <c r="D101" s="3">
-        <v>108</v>
-      </c>
-      <c r="E101" s="3">
-        <v>112</v>
-      </c>
-      <c r="F101" s="3">
-        <v>199</v>
-      </c>
-      <c r="G101" s="3">
-        <v>396</v>
-      </c>
-      <c r="H101" s="3">
-        <v>445</v>
-      </c>
-      <c r="I101" s="3">
-        <v>296</v>
-      </c>
-      <c r="J101" s="3">
-        <v>226</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="E101" s="6">
+        <v>111</v>
+      </c>
+      <c r="F101" s="6">
         <v>194</v>
       </c>
-      <c r="L101" s="3">
-        <v>166</v>
-      </c>
-      <c r="M101" s="3">
-        <v>146</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="G101" s="6">
+        <v>366</v>
+      </c>
+      <c r="H101" s="6">
+        <v>411</v>
+      </c>
+      <c r="I101" s="6">
+        <v>256</v>
+      </c>
+      <c r="J101" s="6">
+        <v>214</v>
+      </c>
+      <c r="K101" s="6">
+        <v>182</v>
+      </c>
+      <c r="L101" s="6">
+        <v>154</v>
+      </c>
+      <c r="M101" s="6">
         <v>126</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" s="6">
-        <v>175</v>
-      </c>
-      <c r="C102" s="6">
-        <v>3</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="6">
-        <v>1</v>
-      </c>
-      <c r="F102" s="6">
-        <v>5</v>
-      </c>
-      <c r="G102" s="6">
-        <v>30</v>
-      </c>
-      <c r="H102" s="6">
-        <v>34</v>
-      </c>
-      <c r="I102" s="6">
-        <v>40</v>
-      </c>
-      <c r="J102" s="6">
-        <v>12</v>
-      </c>
-      <c r="K102" s="6">
-        <v>12</v>
-      </c>
-      <c r="L102" s="6">
-        <v>12</v>
-      </c>
-      <c r="M102" s="6">
-        <v>20</v>
-      </c>
-      <c r="N102" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103" s="6">
-        <v>2400</v>
-      </c>
-      <c r="C103" s="6">
-        <v>158</v>
-      </c>
-      <c r="D103" s="6">
-        <v>108</v>
-      </c>
-      <c r="E103" s="6">
-        <v>111</v>
-      </c>
-      <c r="F103" s="6">
-        <v>194</v>
-      </c>
-      <c r="G103" s="6">
-        <v>366</v>
-      </c>
-      <c r="H103" s="6">
-        <v>411</v>
-      </c>
-      <c r="I103" s="6">
-        <v>256</v>
-      </c>
-      <c r="J103" s="6">
-        <v>214</v>
-      </c>
-      <c r="K103" s="6">
-        <v>182</v>
-      </c>
-      <c r="L103" s="6">
-        <v>154</v>
-      </c>
-      <c r="M103" s="6">
-        <v>126</v>
-      </c>
-      <c r="N103" s="6">
+      <c r="N101" s="6">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="N57:N59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="L57:L59"/>
-    <mergeCell ref="M57:M59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
